--- a/gd/数值规划/属性与技能战斗力划分，技能价值定义.xlsx
+++ b/gd/数值规划/属性与技能战斗力划分，技能价值定义.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\数值规划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
   <si>
     <t>战斗力划分</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -463,10 +463,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单体属性提升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>受伤比</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -512,6 +508,136 @@
   </si>
   <si>
     <t>吸收护盾同治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能（单独平衡）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性提升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与使用普通技能价值完全相同</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量百分比小于等于n%</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性提升量/伤害减免</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被伤害时</t>
+  </si>
+  <si>
+    <t>被攻击概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续带来的削减</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（但是有可能造成浪费）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升周期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹伤害、附加dot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升属性/降低属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技能时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加护盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复血量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续周期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用系数（宠物性格可变）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加dot、hot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散波动系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局开始前、死亡触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体属性提升/降低</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +767,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,8 +777,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,10 +860,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2 18" xfId="3"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1094,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W238"/>
+  <dimension ref="A1:W267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
-      <selection activeCell="J206" sqref="J206:J207"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="L236" sqref="L236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1429,7 +1565,7 @@
         <v>80</v>
       </c>
       <c r="E98" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>81</v>
@@ -1536,7 +1672,7 @@
       </c>
       <c r="G106" s="17">
         <f>H106-$J$114*0.5/$E$98</f>
-        <v>0.89849999999999997</v>
+        <v>0.87819999999999998</v>
       </c>
       <c r="H106" s="18">
         <f>H102</f>
@@ -1556,7 +1692,7 @@
       </c>
       <c r="G107" s="17">
         <f t="shared" ref="G107:G108" si="1">H107-$J$114*0.5/$E$98</f>
-        <v>1.0985</v>
+        <v>1.0781999999999998</v>
       </c>
       <c r="H107" s="18">
         <f t="shared" ref="H107:H108" si="2">H103</f>
@@ -1574,7 +1710,7 @@
       </c>
       <c r="G108" s="17">
         <f t="shared" si="1"/>
-        <v>1.2985</v>
+        <v>1.2782</v>
       </c>
       <c r="H108" s="18">
         <f t="shared" si="2"/>
@@ -1622,7 +1758,9 @@
       <c r="J111" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K111" s="4"/>
+      <c r="K111" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="112" spans="3:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D112" s="4"/>
@@ -1640,7 +1778,10 @@
       <c r="J112" s="1">
         <v>0</v>
       </c>
-      <c r="K112" s="4"/>
+      <c r="K112" s="4">
+        <f>J112/3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="4:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D113" s="4"/>
@@ -1660,7 +1801,10 @@
         <f>SUM($I$113:I113)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="K113" s="4"/>
+      <c r="K113" s="4">
+        <f t="shared" ref="K113:K117" si="3">J113/3</f>
+        <v>0.10000000000000002</v>
+      </c>
     </row>
     <row r="114" spans="4:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D114" s="4"/>
@@ -1680,7 +1824,10 @@
         <f>SUM($I$113:I114)</f>
         <v>1.2180000000000002</v>
       </c>
-      <c r="K114" s="4"/>
+      <c r="K114" s="4">
+        <f t="shared" si="3"/>
+        <v>0.40600000000000008</v>
+      </c>
     </row>
     <row r="115" spans="4:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D115" s="4"/>
@@ -1700,7 +1847,10 @@
         <f>SUM($I$113:I115)</f>
         <v>2.109</v>
       </c>
-      <c r="K115" s="4"/>
+      <c r="K115" s="4">
+        <f t="shared" si="3"/>
+        <v>0.70299999999999996</v>
+      </c>
     </row>
     <row r="116" spans="4:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D116" s="4"/>
@@ -1720,7 +1870,10 @@
         <f>SUM($I$113:I116)</f>
         <v>2.7326999999999999</v>
       </c>
-      <c r="K116" s="4"/>
+      <c r="K116" s="4">
+        <f t="shared" si="3"/>
+        <v>0.91089999999999993</v>
+      </c>
     </row>
     <row r="117" spans="4:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D117" s="4"/>
@@ -1740,7 +1893,10 @@
         <f>SUM($I$113:I117)</f>
         <v>2.91981</v>
       </c>
-      <c r="K117" s="4"/>
+      <c r="K117" s="4">
+        <f t="shared" si="3"/>
+        <v>0.97326999999999997</v>
+      </c>
     </row>
     <row r="118" spans="4:23" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D118" s="4"/>
@@ -1875,11 +2031,11 @@
         <v>48</v>
       </c>
       <c r="G123" s="17">
-        <f t="shared" ref="G123:G124" si="3">H123/$T$129</f>
+        <f t="shared" ref="G123:G124" si="4">H123/$T$129</f>
         <v>1.1214953271028039</v>
       </c>
       <c r="H123" s="17">
-        <f t="shared" ref="H123:H124" si="4">H103</f>
+        <f t="shared" ref="H123:H124" si="5">H103</f>
         <v>1.2</v>
       </c>
       <c r="I123" s="4"/>
@@ -1913,11 +2069,11 @@
         <v>49</v>
       </c>
       <c r="G124" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3084112149532712</v>
       </c>
       <c r="H124" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
       <c r="I124" s="4"/>
@@ -2117,7 +2273,7 @@
     <row r="129" spans="4:20" x14ac:dyDescent="0.15">
       <c r="D129" s="4"/>
       <c r="E129" s="4" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="8" t="s">
@@ -2164,7 +2320,7 @@
         <v>21</v>
       </c>
       <c r="G131" s="18">
-        <f t="shared" ref="G131:G133" si="5">H131-1</f>
+        <f t="shared" ref="G131:G132" si="6">H131-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="H131" s="18">
@@ -2182,7 +2338,7 @@
         <v>55</v>
       </c>
       <c r="G132" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="H132" s="18">
@@ -2198,16 +2354,11 @@
     <row r="133" spans="4:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G133" s="18">
-        <f t="shared" si="5"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="H133" s="18">
-        <f>$H$124*$J$129</f>
-        <v>1.3</v>
+      <c r="G133" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
@@ -2216,11 +2367,15 @@
     <row r="134" spans="4:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="G134" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>110</v>
+      <c r="F134" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="19">
+        <f>G130/H134</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="H134" s="16">
+        <v>3</v>
       </c>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -2230,10 +2385,10 @@
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G135" s="19">
-        <f>G130/H135</f>
+        <f>G131/H135</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="H135" s="16">
@@ -2247,10 +2402,10 @@
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G136" s="19">
-        <f>G131/H136</f>
+        <f>G132/H136</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="H136" s="16">
@@ -2263,16 +2418,9 @@
     <row r="137" spans="4:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G137" s="19">
-        <f>G132/H137</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="H137" s="16">
-        <v>3</v>
-      </c>
+      <c r="F137" s="4"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="16"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
@@ -2280,204 +2428,208 @@
     <row r="138" spans="4:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G138" s="19">
-        <f>G133/H138</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="H138" s="16">
-        <v>3</v>
+      <c r="F138" s="4"/>
+      <c r="G138" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H138" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" spans="4:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="16"/>
+    <row r="139" spans="4:20" x14ac:dyDescent="0.15">
+      <c r="E139" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4">
+        <f>H102</f>
+        <v>1</v>
+      </c>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
     </row>
-    <row r="140" spans="4:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D140" s="4"/>
+    <row r="140" spans="4:20" x14ac:dyDescent="0.15">
       <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H140" s="21" t="s">
-        <v>63</v>
+      <c r="F140" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4">
+        <f>H103</f>
+        <v>1.2</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
     </row>
     <row r="141" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="E141" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
       <c r="F141" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4">
-        <f>H102</f>
-        <v>1</v>
+        <f>H104</f>
+        <v>1.4</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="E142" s="4"/>
-      <c r="F142" s="4" t="s">
+    <row r="142" spans="4:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H142" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I142" s="4"/>
+      <c r="J142" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K142" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="143" spans="4:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D143" s="4"/>
+      <c r="F143" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G143" s="16">
+        <v>3</v>
+      </c>
+      <c r="H143" s="17">
+        <f>H139/$L$145/$G$143</f>
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="I143" s="4"/>
+      <c r="J143" s="1">
+        <v>1</v>
+      </c>
+      <c r="K143" s="19">
+        <f>K142</f>
+        <v>0.5</v>
+      </c>
+      <c r="L143" s="19">
+        <f>SUM($K$143:K143)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="144" spans="4:20" x14ac:dyDescent="0.15">
+      <c r="D144" s="4"/>
+      <c r="F144" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4">
-        <f>H103</f>
-        <v>1.2</v>
-      </c>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-    </row>
-    <row r="143" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4">
-        <f>H104</f>
-        <v>1.4</v>
-      </c>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-    </row>
-    <row r="144" spans="4:20" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H144" s="21" t="s">
-        <v>88</v>
+      <c r="G144" s="3">
+        <v>3</v>
+      </c>
+      <c r="H144" s="17">
+        <f>H140/$L$145/$G$143</f>
+        <v>0.42666666666666669</v>
       </c>
       <c r="I144" s="4"/>
-      <c r="J144" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K144" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>92</v>
+      <c r="J144" s="1">
+        <v>2</v>
+      </c>
+      <c r="K144" s="19">
+        <f>(1-K143)*$K$142</f>
+        <v>0.25</v>
+      </c>
+      <c r="L144" s="19">
+        <f>SUM($K$143:K144)</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="145" spans="4:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D145" s="4"/>
       <c r="F145" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G145" s="16">
+        <v>49</v>
+      </c>
+      <c r="G145" s="3">
         <v>3</v>
       </c>
       <c r="H145" s="17">
-        <f>H141/$L$147/$G$145</f>
-        <v>0.35555555555555557</v>
+        <f>H141/$L$145/$G$143</f>
+        <v>0.49777777777777771</v>
       </c>
       <c r="I145" s="4"/>
-      <c r="J145" s="1">
-        <v>1</v>
+      <c r="J145" s="7">
+        <v>3</v>
       </c>
       <c r="K145" s="19">
-        <f>K144</f>
-        <v>0.5</v>
+        <f>(1-K144)*(1-K143)*$K$142</f>
+        <v>0.1875</v>
       </c>
       <c r="L145" s="19">
-        <f>SUM($K$145:K145)</f>
-        <v>0.5</v>
+        <f>SUM($K$143:K145)</f>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="146" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D146" s="4"/>
-      <c r="F146" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G146" s="3">
-        <v>3</v>
-      </c>
-      <c r="H146" s="17">
-        <f>H142/$L$147/$G$145</f>
-        <v>0.42666666666666669</v>
-      </c>
+      <c r="D146" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
       <c r="I146" s="4"/>
-      <c r="J146" s="1">
-        <v>2</v>
-      </c>
-      <c r="K146" s="19">
-        <f>(1-K145)*$K$144</f>
-        <v>0.25</v>
-      </c>
-      <c r="L146" s="19">
-        <f>SUM($K$145:K146)</f>
-        <v>0.75</v>
-      </c>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
     </row>
     <row r="147" spans="4:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D147" s="4"/>
-      <c r="F147" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G147" s="3">
+      <c r="E147" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+    </row>
+    <row r="148" spans="4:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4">
+        <f>H98</f>
         <v>3</v>
       </c>
-      <c r="H147" s="17">
-        <f>H143/$L$147/$G$145</f>
-        <v>0.49777777777777771</v>
-      </c>
-      <c r="I147" s="4"/>
-      <c r="J147" s="7">
-        <v>3</v>
-      </c>
-      <c r="K147" s="19">
-        <f>(1-K146)*(1-K145)*$K$144</f>
-        <v>0.1875</v>
-      </c>
-      <c r="L147" s="19">
-        <f>SUM($K$145:K147)</f>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="148" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D148" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
     </row>
     <row r="149" spans="4:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D149" s="4"/>
-      <c r="E149" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G149" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
@@ -2485,12 +2637,15 @@
     <row r="150" spans="4:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4">
-        <f>H98</f>
+      <c r="F150" s="4">
+        <v>1</v>
+      </c>
+      <c r="G150" s="17">
+        <f>($H$148-J112*0.5)/F150</f>
+        <v>3</v>
+      </c>
+      <c r="H150" s="17">
+        <f>G150*F150+J112</f>
         <v>3</v>
       </c>
       <c r="I150" s="4"/>
@@ -2500,14 +2655,16 @@
     <row r="151" spans="4:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G151" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="H151" s="8" t="s">
-        <v>63</v>
+      <c r="F151" s="4">
+        <v>2</v>
+      </c>
+      <c r="G151" s="17">
+        <f>($H$148-J113*0.5)/F151</f>
+        <v>1.425</v>
+      </c>
+      <c r="H151" s="17">
+        <f>G151*F151+J113</f>
+        <v>3.1500000000000004</v>
       </c>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -2517,15 +2674,15 @@
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G152" s="17">
-        <f>($H$150-J112*0.5)/F152</f>
-        <v>3</v>
+        <f>($H$148-J114*0.5)/F152</f>
+        <v>0.79700000000000004</v>
       </c>
       <c r="H152" s="17">
-        <f>G152*F152+J112</f>
-        <v>3</v>
+        <f>G152*F152+J114</f>
+        <v>3.609</v>
       </c>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
@@ -2535,15 +2692,15 @@
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G153" s="17">
-        <f>($H$150-J113*0.5)/F153</f>
-        <v>1.425</v>
+        <f>($H$148-J115*0.5)/F153</f>
+        <v>0.486375</v>
       </c>
       <c r="H153" s="17">
-        <f>G153*F153+J113</f>
-        <v>3.1500000000000004</v>
+        <f>G153*F153+J115</f>
+        <v>4.0545</v>
       </c>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -2553,15 +2710,15 @@
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G154" s="17">
-        <f>($H$150-J114*0.5)/F154</f>
-        <v>0.79700000000000004</v>
+        <f>($H$148-J116*0.5)/F154</f>
+        <v>0.32673000000000002</v>
       </c>
       <c r="H154" s="17">
-        <f>G154*F154+J114</f>
-        <v>3.609</v>
+        <f>G154*F154+J116</f>
+        <v>4.3663499999999997</v>
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -2571,99 +2728,89 @@
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G155" s="17">
-        <f>($H$150-J115*0.5)/F155</f>
-        <v>0.486375</v>
+        <f>($H$148-J117*0.5)/F155</f>
+        <v>0.25668249999999998</v>
       </c>
       <c r="H155" s="17">
-        <f>G155*F155+J115</f>
-        <v>4.0545</v>
+        <f>G155*F155+J117</f>
+        <v>4.459905</v>
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" spans="4:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4">
-        <v>5</v>
-      </c>
-      <c r="G156" s="17">
-        <f>($H$150-J116*0.5)/F156</f>
-        <v>0.32673000000000002</v>
-      </c>
-      <c r="H156" s="17">
-        <f>G156*F156+J116</f>
-        <v>4.3663499999999997</v>
-      </c>
+      <c r="E156" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
     </row>
-    <row r="157" spans="4:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
-      <c r="F157" s="4">
-        <v>6</v>
-      </c>
-      <c r="G157" s="17">
-        <f>($H$150-J117*0.5)/F157</f>
-        <v>0.25668249999999998</v>
-      </c>
-      <c r="H157" s="17">
-        <f>G157*F157+J117</f>
-        <v>4.459905</v>
+      <c r="F157" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H157" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="158" spans="4:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D158" s="4"/>
-      <c r="E158" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
+      <c r="G158" s="17">
+        <f>H158/T129</f>
+        <v>2.8037383177570097</v>
+      </c>
+      <c r="H158" s="17">
+        <f>H98</f>
+        <v>3</v>
+      </c>
+      <c r="I158" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="159" spans="4:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
-      <c r="F159" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G159" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H159" s="21" t="s">
-        <v>63</v>
-      </c>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" spans="4:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="17">
-        <f>H160/T129</f>
-        <v>2.8037383177570097</v>
-      </c>
-      <c r="H160" s="17">
-        <f>H98</f>
-        <v>3</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="F160" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H160" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
     </row>
@@ -2671,9 +2818,17 @@
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
+      <c r="G161" s="17">
+        <f>H161/3/T129</f>
+        <v>0.93457943925233655</v>
+      </c>
+      <c r="H161" s="17">
+        <f>H98</f>
+        <v>3</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
     </row>
@@ -2681,14 +2836,10 @@
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G162" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H162" s="21" t="s">
-        <v>63</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
@@ -2697,39 +2848,40 @@
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
-      <c r="G163" s="17">
-        <f>H163/3/T129</f>
-        <v>0.93457943925233655</v>
-      </c>
-      <c r="H163" s="17">
-        <f>H98</f>
-        <v>3</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="G163" s="8"/>
+      <c r="H163" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
     </row>
-    <row r="164" spans="4:11" x14ac:dyDescent="0.15">
+    <row r="164" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
-      <c r="F164" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
+      <c r="G164" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H164" s="17">
+        <f>H148*J164</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J164" s="16">
+        <v>0.6</v>
+      </c>
       <c r="K164" s="4"/>
     </row>
     <row r="165" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="21" t="s">
-        <v>63</v>
+      <c r="G165" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -2738,29 +2890,34 @@
     <row r="166" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
-      <c r="G166" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H166" s="17">
-        <f>H150*J166</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="I166" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J166" s="16">
-        <v>0.6</v>
-      </c>
+      <c r="F166" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G166" s="19">
+        <f>G134</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="H166" s="18">
+        <f>$H$164/3/G166</f>
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
       <c r="K166" s="4"/>
     </row>
     <row r="167" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
-      <c r="G167" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H167" s="8" t="s">
-        <v>110</v>
+      <c r="F167" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G167" s="19">
+        <f>G135</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="H167" s="18">
+        <f t="shared" ref="H167:H168" si="7">$H$164/3/G167</f>
+        <v>5.9999999999999982</v>
       </c>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
@@ -2770,14 +2927,14 @@
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G168" s="19">
-        <f>G135</f>
+        <f>G136</f>
         <v>0.10000000000000002</v>
       </c>
       <c r="H168" s="18">
-        <f>$H$166/3/G168</f>
+        <f t="shared" si="7"/>
         <v>5.9999999999999982</v>
       </c>
       <c r="I168" s="4"/>
@@ -2787,16 +2944,10 @@
     <row r="169" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
-      <c r="F169" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" s="19">
-        <f t="shared" ref="G169:G171" si="6">G136</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="H169" s="18">
-        <f t="shared" ref="H169:H171" si="7">$H$166/3/G169</f>
-        <v>5.9999999999999982</v>
+      <c r="F169" s="4"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
@@ -2805,16 +2956,12 @@
     <row r="170" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
-      <c r="F170" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G170" s="19">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="H170" s="18">
-        <f t="shared" si="7"/>
-        <v>5.9999999999999982</v>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H170" s="17">
+        <v>3</v>
       </c>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
@@ -2823,16 +2970,12 @@
     <row r="171" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
-      <c r="F171" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G171" s="19">
-        <f t="shared" si="6"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="H171" s="18">
-        <f t="shared" si="7"/>
-        <v>5.9999999999999982</v>
+      <c r="F171" s="4"/>
+      <c r="G171" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H171" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
@@ -2842,9 +2985,12 @@
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="21" t="s">
-        <v>63</v>
+      <c r="G172" s="16">
+        <v>3</v>
+      </c>
+      <c r="H172" s="17">
+        <f>$H$170/$G$172/$L$145</f>
+        <v>1.0666666666666667</v>
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
@@ -2854,26 +3000,20 @@
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
-      <c r="G173" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H173" s="17">
-        <v>3</v>
-      </c>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
     </row>
-    <row r="174" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="4:11" x14ac:dyDescent="0.15">
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H174" s="21" t="s">
-        <v>88</v>
-      </c>
+      <c r="F174" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
@@ -2882,15 +3022,15 @@
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
-      <c r="G175" s="16">
-        <v>3</v>
-      </c>
-      <c r="H175" s="17">
-        <f>$H$173/$G$175/$L$147</f>
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
+      <c r="G175" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H175" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I175" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="K175" s="4"/>
     </row>
     <row r="176" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -2898,697 +3038,884 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
+      <c r="H176" s="17">
+        <f>H164*3</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="I176" s="17">
+        <v>0</v>
+      </c>
       <c r="K176" s="4"/>
     </row>
     <row r="177" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
-      <c r="F177" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
+      <c r="G177" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H177" s="17">
+        <f>(H176+I176)/2</f>
+        <v>2.6999999999999997</v>
+      </c>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
     </row>
-    <row r="178" spans="3:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="H178" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="I178" s="21" t="s">
-        <v>116</v>
-      </c>
+    <row r="178" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="J178" s="4"/>
       <c r="K178" s="4"/>
     </row>
-    <row r="179" spans="3:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="17">
-        <f>H166*3</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="I179" s="17">
-        <v>0</v>
-      </c>
+    <row r="179" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="J179" s="4"/>
       <c r="K179" s="4"/>
     </row>
     <row r="180" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="G180" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H180" s="17">
-        <f>(H179+I179)/2</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="I180" s="4"/>
+      <c r="C180" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F180" s="19">
+        <f>F90</f>
+        <v>1.2</v>
+      </c>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
     </row>
-    <row r="181" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="181" spans="3:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F181" s="14"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
     </row>
     <row r="182" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="J182" s="4"/>
-      <c r="K182" s="4"/>
-    </row>
-    <row r="183" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C183" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E183" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F183" s="19">
-        <f>F90</f>
-        <v>1.2</v>
-      </c>
-      <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
-    </row>
-    <row r="184" spans="3:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F184" s="14"/>
-      <c r="J184" s="4"/>
-      <c r="K184" s="4"/>
-    </row>
-    <row r="185" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D185" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E185" s="3">
-        <v>6</v>
-      </c>
-      <c r="F185" s="7"/>
-      <c r="G185" s="8" t="s">
+      <c r="D182" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E182" s="3">
+        <v>5</v>
+      </c>
+      <c r="F182" s="7"/>
+      <c r="G182" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H185" s="25">
+      <c r="H182" s="25">
         <f>F90/F91*H98</f>
         <v>2.5714285714285716</v>
       </c>
     </row>
+    <row r="183" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D183" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D184" s="8"/>
+      <c r="E184" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F184" s="4"/>
+      <c r="G184" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H184" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I184" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="185" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D185" s="8"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G185" s="7">
+        <f t="shared" ref="G185:G186" si="8">H185*I185</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="H185" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
     <row r="186" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D186" s="21" t="s">
-        <v>51</v>
+      <c r="D186" s="8"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G186" s="7">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="H186" s="3">
+        <v>1</v>
+      </c>
+      <c r="I186" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="187" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D187" s="8"/>
-      <c r="E187" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F187" s="4"/>
-      <c r="G187" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H187" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I187" s="8" t="s">
-        <v>113</v>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G187" s="1">
+        <f>H187*I187</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H187" s="19">
+        <f>F180</f>
+        <v>1.2</v>
+      </c>
+      <c r="I187" s="3">
+        <v>0.75</v>
       </c>
     </row>
     <row r="188" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D188" s="8"/>
-      <c r="E188" s="4"/>
-      <c r="F188" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G188" s="7">
-        <f t="shared" ref="G188:G189" si="8">H188*I188</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H188" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="I188" s="3">
-        <v>0.75</v>
-      </c>
     </row>
     <row r="189" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D189" s="8"/>
-      <c r="E189" s="4"/>
-      <c r="F189" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G189" s="7">
-        <f t="shared" si="8"/>
-        <v>0.75</v>
-      </c>
-      <c r="H189" s="3">
+    </row>
+    <row r="190" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D190" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="D191" s="21"/>
+      <c r="E191" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" spans="3:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D192" s="21"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H192" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J192" s="16">
         <v>1</v>
       </c>
-      <c r="I189" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="190" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D190" s="8"/>
-      <c r="E190" s="4"/>
-      <c r="F190" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G190" s="1">
-        <f>H190*I190</f>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="H190" s="19">
-        <f>F183</f>
+      <c r="K192" s="4"/>
+    </row>
+    <row r="193" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D193" s="21"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G193" s="18">
+        <f t="shared" ref="G193" si="9">H193-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H193" s="18">
+        <f>$F$180*$J$192</f>
         <v>1.2</v>
       </c>
-      <c r="I190" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="191" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D191" s="8"/>
-    </row>
-    <row r="192" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D192" s="8"/>
-    </row>
-    <row r="193" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D193" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E193" s="4"/>
-      <c r="F193" s="4"/>
-    </row>
-    <row r="194" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="I193" s="4"/>
+      <c r="J193" s="4"/>
+      <c r="K193" s="4"/>
+    </row>
+    <row r="194" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D194" s="21"/>
-      <c r="E194" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="G194" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="4"/>
     </row>
     <row r="195" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D195" s="21"/>
       <c r="E195" s="4"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H195" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I195" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J195" s="16">
-        <v>1</v>
-      </c>
+      <c r="F195" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G195" s="19">
+        <f>G193/H195</f>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="H195" s="16">
+        <v>3</v>
+      </c>
+      <c r="I195" s="4"/>
+      <c r="J195" s="4"/>
       <c r="K195" s="4"/>
     </row>
     <row r="196" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D196" s="21"/>
       <c r="E196" s="4"/>
-      <c r="F196" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" s="18">
-        <f>H196-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="H196" s="18">
-        <f>$F$183*$J$195</f>
-        <v>1.2</v>
-      </c>
-      <c r="I196" s="4"/>
-      <c r="J196" s="4"/>
-      <c r="K196" s="4"/>
+      <c r="F196" s="4"/>
     </row>
     <row r="197" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D197" s="21"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G197" s="18">
-        <f t="shared" ref="G197:G199" si="9">H197-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="H197" s="18">
-        <f>$F$183*$J$195</f>
+      <c r="F197" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G197" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I197" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="198" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D198" s="8"/>
+      <c r="E198" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F198" s="19">
+        <f>G198*H198/I198</f>
+        <v>0.3</v>
+      </c>
+      <c r="G198" s="19">
+        <f>F180</f>
         <v>1.2</v>
       </c>
-      <c r="I197" s="4"/>
-      <c r="J197" s="4"/>
-      <c r="K197" s="4"/>
-    </row>
-    <row r="198" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D198" s="21"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G198" s="18">
-        <f t="shared" si="9"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="H198" s="18">
-        <f>$F$183*$J$195</f>
-        <v>1.2</v>
-      </c>
-      <c r="I198" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J198" s="4"/>
-      <c r="K198" s="4"/>
-    </row>
-    <row r="199" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D199" s="21"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G199" s="18">
-        <f t="shared" si="9"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="H199" s="18">
-        <f>$F$183*$J$195</f>
-        <v>1.2</v>
-      </c>
-      <c r="I199" s="4"/>
-      <c r="J199" s="4"/>
-      <c r="K199" s="4"/>
-    </row>
-    <row r="200" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D200" s="21"/>
-      <c r="E200" s="4"/>
-      <c r="G200" s="21" t="s">
+      <c r="H198" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I198" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D199" s="8"/>
+    </row>
+    <row r="200" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D200" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D201" s="8"/>
+      <c r="F201" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G201" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="202" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D202" s="8"/>
+      <c r="E202" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F202" s="19">
+        <f>G202*H202</f>
+        <v>1.9285714285714288</v>
+      </c>
+      <c r="G202" s="19">
+        <f>H182</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="H202" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="203" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="D203" s="8"/>
+    </row>
+    <row r="204" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D204" s="8"/>
+      <c r="E204" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G204" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H204" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="205" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D205" s="8"/>
+      <c r="F205" s="19">
+        <f>G205*H205/3</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="G205" s="19">
+        <f>H182</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="H205" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="206" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D206" s="8"/>
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="4:11" x14ac:dyDescent="0.15">
+      <c r="E207" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="208" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="8"/>
+      <c r="H208" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I208" s="4"/>
+      <c r="J208" s="4"/>
+      <c r="K208" s="4"/>
+    </row>
+    <row r="209" spans="5:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E209" s="4"/>
+      <c r="G209" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H209" s="17">
+        <f>H182*J209</f>
+        <v>1.2085714285714286</v>
+      </c>
+      <c r="I209" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J209" s="16">
+        <v>0.47</v>
+      </c>
+      <c r="K209" s="4"/>
+    </row>
+    <row r="210" spans="5:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E210" s="4"/>
+      <c r="G210" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="H200" s="8" t="s">
+      <c r="H210" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I200" s="4"/>
-      <c r="J200" s="4"/>
-      <c r="K200" s="4"/>
-    </row>
-    <row r="201" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D201" s="21"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G201" s="19">
-        <f>G196/H201</f>
+      <c r="I210" s="4"/>
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
+    </row>
+    <row r="211" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="F211" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G211" s="19">
+        <f>G195</f>
         <v>6.6666666666666652E-2</v>
       </c>
-      <c r="H201" s="16">
+      <c r="H211" s="18">
+        <f t="shared" ref="H211" si="10">$H$209/G211/3</f>
+        <v>6.0428571428571445</v>
+      </c>
+      <c r="I211" s="4"/>
+      <c r="J211" s="4"/>
+      <c r="K211" s="4"/>
+    </row>
+    <row r="212" spans="5:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F212" s="4"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="4"/>
+      <c r="J212" s="4"/>
+      <c r="K212" s="4"/>
+    </row>
+    <row r="213" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="H213" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="214" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="F214" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H214" s="19">
+        <f>H182</f>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="215" spans="5:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G215" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H215" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="216" spans="5:11" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F216" s="7"/>
+      <c r="G216" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H216" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="217" spans="5:11" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="218" spans="5:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G218" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H218" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I218" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J218" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="219" spans="5:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F219" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G219" s="19">
+        <f>F198</f>
+        <v>0.3</v>
+      </c>
+      <c r="H219" s="19">
+        <f>H182</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="I219" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J219" s="19">
+        <f>H219/3*I219/G219</f>
+        <v>2.1428571428571432</v>
+      </c>
+    </row>
+    <row r="220" spans="5:11" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="221" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="F221" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="222" spans="5:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G222" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="223" spans="5:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G223" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="224" spans="5:11" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="225" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="E225" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="226" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="F226" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="228" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="D228" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="229" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="E229" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="230" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="F230" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="232" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="E232" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="233" spans="4:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F233" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="234" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="G234" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="235" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="G235" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H235" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I235" s="25">
+        <f>G235*(1+H235)+(1-G235)*1</f>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="236" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="F236" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="237" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="G237" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J237" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="238" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="G238" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H238" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J238" s="25">
+        <f>1+G238*H238</f>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="239" spans="4:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="J239" s="27"/>
+    </row>
+    <row r="240" spans="4:10" x14ac:dyDescent="0.15">
+      <c r="E240" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="241" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F241" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="242" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="G242" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K242" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="243" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="G243" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="H243" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I243" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J243" s="3">
         <v>3</v>
       </c>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-    </row>
-    <row r="202" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D202" s="21"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G202" s="19">
-        <f>G197/H202</f>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="H202" s="16">
-        <v>3</v>
-      </c>
-      <c r="I202" s="4"/>
-      <c r="J202" s="4"/>
-      <c r="K202" s="4"/>
-    </row>
-    <row r="203" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D203" s="21"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G203" s="19">
-        <f>G198/H203</f>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="H203" s="16">
-        <v>3</v>
-      </c>
-      <c r="I203" s="4"/>
-      <c r="J203" s="4"/>
-      <c r="K203" s="4"/>
-    </row>
-    <row r="204" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D204" s="21"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G204" s="19">
-        <f>G199/H204</f>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="H204" s="16">
-        <v>3</v>
-      </c>
-      <c r="I204" s="4"/>
-      <c r="J204" s="4"/>
-      <c r="K204" s="4"/>
-    </row>
-    <row r="205" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D205" s="21"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-    </row>
-    <row r="206" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D206" s="21"/>
-      <c r="F206" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G206" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H206" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I206" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="207" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D207" s="8"/>
-      <c r="E207" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F207" s="19">
-        <f>G207*H207/I207</f>
+      <c r="K243" s="25">
+        <f>1+G243*H243*I243*J243</f>
+        <v>1.0396000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F244" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="245" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="G245" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J245" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="246" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="G246" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="H246" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I246" s="1">
         <v>0.3</v>
       </c>
-      <c r="G207" s="19">
-        <f>F183</f>
-        <v>1.2</v>
-      </c>
-      <c r="H207" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="I207" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D208" s="8"/>
-    </row>
-    <row r="209" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D209" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="210" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D210" s="8"/>
-      <c r="F210" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G210" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H210" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="211" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D211" s="8"/>
-      <c r="E211" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F211" s="19">
-        <f>G211*H211</f>
-        <v>1.9285714285714288</v>
-      </c>
-      <c r="G211" s="19">
-        <f>H185</f>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="H211" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="212" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D212" s="8"/>
-    </row>
-    <row r="213" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D213" s="8"/>
-      <c r="E213" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F213" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G213" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H213" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="214" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D214" s="8"/>
-      <c r="F214" s="19">
-        <f>G214*H214/3</f>
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="G214" s="19">
-        <f>H185</f>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="H214" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="215" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D215" s="8"/>
-      <c r="E215" s="4"/>
-    </row>
-    <row r="216" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="E216" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="217" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I217" s="4"/>
-      <c r="J217" s="4"/>
-      <c r="K217" s="4"/>
-    </row>
-    <row r="218" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E218" s="4"/>
-      <c r="G218" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H218" s="17">
-        <f>H185*J218</f>
-        <v>1.2085714285714286</v>
-      </c>
-      <c r="I218" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J218" s="16">
-        <v>0.47</v>
-      </c>
-      <c r="K218" s="4"/>
-    </row>
-    <row r="219" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E219" s="4"/>
-      <c r="G219" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H219" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I219" s="4"/>
-      <c r="J219" s="4"/>
-      <c r="K219" s="4"/>
-    </row>
-    <row r="220" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E220" s="4"/>
-      <c r="F220" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G220" s="19">
-        <f>G201</f>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="H220" s="18">
-        <f>$H$218/G220/3</f>
-        <v>6.0428571428571445</v>
-      </c>
-      <c r="I220" s="4"/>
-      <c r="J220" s="4"/>
-      <c r="K220" s="4"/>
-    </row>
-    <row r="221" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="F221" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G221" s="19">
-        <f t="shared" ref="G221:G223" si="10">G202</f>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="H221" s="18">
-        <f t="shared" ref="H221:H223" si="11">$H$218/G221/3</f>
-        <v>6.0428571428571445</v>
-      </c>
-      <c r="I221" s="4"/>
-      <c r="J221" s="4"/>
-      <c r="K221" s="4"/>
-    </row>
-    <row r="222" spans="4:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F222" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G222" s="19">
-        <f t="shared" si="10"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="H222" s="18">
-        <f t="shared" si="11"/>
-        <v>6.0428571428571445</v>
-      </c>
-      <c r="I222" s="4"/>
-      <c r="J222" s="4"/>
-      <c r="K222" s="4"/>
-    </row>
-    <row r="223" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="F223" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G223" s="19">
-        <f t="shared" si="10"/>
-        <v>6.6666666666666652E-2</v>
-      </c>
-      <c r="H223" s="18">
-        <f t="shared" si="11"/>
-        <v>6.0428571428571445</v>
-      </c>
-      <c r="I223" s="4"/>
-      <c r="J223" s="4"/>
-      <c r="K223" s="4"/>
-    </row>
-    <row r="224" spans="4:11" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F224" s="4"/>
-      <c r="H224" s="5"/>
-      <c r="I224" s="4"/>
-      <c r="J224" s="4"/>
-      <c r="K224" s="4"/>
-    </row>
-    <row r="225" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="H225" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="226" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="F226" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H226" s="19">
-        <f>H185</f>
-        <v>2.5714285714285716</v>
-      </c>
-    </row>
-    <row r="227" spans="5:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G227" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H227" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="228" spans="5:10" s="22" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F228" s="7"/>
-      <c r="G228" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="H228" s="23">
+      <c r="J246" s="25">
+        <f>1+G246*H246*I246</f>
+        <v>1.0396000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="E248" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="249" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="F249" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="250" spans="5:12" x14ac:dyDescent="0.15">
+      <c r="G250" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K250" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L250" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="251" spans="5:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G251" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H251" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I251" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J251" s="3">
+        <v>2</v>
+      </c>
+      <c r="K251" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="229" spans="5:10" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="230" spans="5:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G230" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H230" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I230" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J230" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="231" spans="5:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F231" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G231" s="19">
-        <f>F207</f>
+      <c r="L251" s="25">
+        <f>1+I251*J251*K251*H251*G251</f>
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="252" spans="5:12" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="5:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F253" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="254" spans="5:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G254" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H254" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I254" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J254" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="255" spans="5:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G255" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H255" s="3">
         <v>0.3</v>
       </c>
-      <c r="H231" s="19">
-        <f>H185</f>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="I231" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="J231" s="19">
-        <f>H231/3*I231/G231</f>
-        <v>2.1428571428571432</v>
-      </c>
-    </row>
-    <row r="232" spans="5:10" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="233" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="F233" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="234" spans="5:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G234" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="235" spans="5:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G235" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="236" spans="5:10" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="237" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E237" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="238" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="F238" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="I255" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J255" s="25">
+        <f>1+G255*H255*I255</f>
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="256" spans="5:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
+      <c r="J256" s="27"/>
+    </row>
+    <row r="257" spans="6:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F257" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="258" spans="6:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G258" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H258" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I258" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J258" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K258" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="259" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G259" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H259" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I259" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J259" s="3">
+        <v>2</v>
+      </c>
+      <c r="K259" s="25">
+        <f>1+H259*I259*J259*G259</f>
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="260" spans="6:11" s="7" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="261" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F261" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="262" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G262" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H262" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I262" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J262" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K262" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="263" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G263" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H263" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I263" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J263" s="3">
+        <v>2</v>
+      </c>
+      <c r="K263" s="25">
+        <f>1+H263*I263*J263*G263</f>
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="264" spans="6:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3"/>
+      <c r="K264" s="27"/>
+    </row>
+    <row r="265" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F265" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G265" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H265" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J265" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="266" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G266" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H266" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I266" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J266" s="25">
+        <f>1+G266*H266*I266</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="267" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
